--- a/HT36C/Tables/Table 8.xlsx
+++ b/HT36C/Tables/Table 8.xlsx
@@ -73,6 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -134,7 +137,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -143,7 +152,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -448,10 +463,10 @@
       <c r="K2" s="5">
         <v>38.3</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>3.0</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <v>0.95</v>
       </c>
       <c r="N2" s="3"/>
@@ -500,10 +515,10 @@
       <c r="K3" s="5">
         <v>38.0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>2.0</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>0.94</v>
       </c>
       <c r="N3" s="3"/>
@@ -519,7 +534,7 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
@@ -552,10 +567,10 @@
       <c r="K4" s="5">
         <v>33.9</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="9">
         <v>1.0</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="10">
         <v>1.07</v>
       </c>
       <c r="N4" s="3"/>
@@ -571,7 +586,7 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5">
@@ -604,10 +619,10 @@
       <c r="K5" s="5">
         <v>29.8</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="11">
         <v>0.51</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="12">
         <v>1.1</v>
       </c>
       <c r="N5" s="3"/>
